--- a/Tool/ExeclToScript/Work/TransXlsxTable/PhysicsPlayer.xlsx
+++ b/Tool/ExeclToScript/Work/TransXlsxTable/PhysicsPlayer.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="142">
   <si>
     <t>Key</t>
   </si>
@@ -35,10 +35,22 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>SubType</t>
+  </si>
+  <si>
+    <t>ExtParam</t>
+  </si>
+  <si>
     <t>RigidType</t>
   </si>
   <si>
-    <t>Desc</t>
+    <t>IsVector</t>
   </si>
   <si>
     <t>Body</t>
@@ -47,9 +59,15 @@
     <t>Skill</t>
   </si>
   <si>
+    <t>AttackCollider</t>
+  </si>
+  <si>
     <t>Attrs</t>
   </si>
   <si>
+    <t>IsShowHpBar</t>
+  </si>
+  <si>
     <t>字段描述</t>
   </si>
   <si>
@@ -57,14 +75,68 @@
   </si>
   <si>
     <t>名称</t>
+  </si>
+  <si>
+    <t>怪物描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砖块类型
+//以下是拥有实体碰撞器的
+1:勇士类型
+2:梦魇类型
+3:房间类型
+4:世界类型 
+5:障碍物类型
+6:建筑物类型
+7:建筑物容器类型
+8:技能容器
+//以下是拥有检测碰撞器的
+100:范围检测器 
+</t>
+  </si>
+  <si>
+    <t>Type(1):
+1:机器人勇士类型
+2:玩家勇士类型
+Type(2):
+1:机器人梦魇类型
+Type(3):
+1:通用房间类型
+Type(4):
+1:通用世界类型
+Type(5):
+1:通用障碍物类型
+Type(6):
+1:炮塔建筑物类型
+2:床体类型
+3:纵向房门建筑物类型 
+4:练气塔建筑类型
+Type(7):
+1:建筑物容器类型
+Type(8): 
+1:立即攻击范围内的敌人，并造成伤害。
+2:立即攻击指定的敌人，并造成伤害。
+3:向指定方向移动，当触碰到敌人时，造成伤害，当离开世界时销毁自己。
+4:向正前方放置一个形状，之后每秒钟对敌人造成指定伤害。
+Type(101):
+1:房门触发器
+2:床体触发器
+3:摄像头触发器</t>
+  </si>
+  <si>
+    <t>外部参数:给与玩家一些额外的游戏参数
+24-3:(房门类型，用以标识房门移动方向)
+1:纵向移动的房门
+2:横向移动的房门</t>
   </si>
   <si>
     <t>刚体类型
 0:动态刚体
-1:静态刚体</t>
-  </si>
-  <si>
-    <t>怪物描述</t>
+1:静态刚体
+2:运动学刚体</t>
+  </si>
+  <si>
+    <t>是否是容器</t>
   </si>
   <si>
     <t>角色的身体属性(对应碰撞器的信息)</t>
@@ -73,9 +145,15 @@
     <t>角色身上自带的技能类型</t>
   </si>
   <si>
+    <t>角色身上的攻击碰撞器技能</t>
+  </si>
+  <si>
     <t>角色的基本游戏属性</t>
   </si>
   <si>
+    <t>是否显示玩家的血条</t>
+  </si>
+  <si>
     <t>类型</t>
   </si>
   <si>
@@ -85,6 +163,9 @@
     <t>String</t>
   </si>
   <si>
+    <t>Boolean</t>
+  </si>
+  <si>
     <t>Array&lt;Number&gt;</t>
   </si>
   <si>
@@ -100,82 +181,322 @@
     <t>T</t>
   </si>
   <si>
-    <t>墙体.横</t>
-  </si>
-  <si>
-    <t>用以将敌人现在在指定的范围内</t>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>50*50的游戏世界，用于装载游戏玩家</t>
+  </si>
+  <si>
+    <t>[70]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>地砖.左竖</t>
+  </si>
+  <si>
+    <t>墙体</t>
+  </si>
+  <si>
+    <t>地砖.右竖</t>
+  </si>
+  <si>
+    <t>地砖.上横</t>
+  </si>
+  <si>
+    <t>测试地砖</t>
+  </si>
+  <si>
+    <t>地砖.下横</t>
+  </si>
+  <si>
+    <t>地砖.左上</t>
+  </si>
+  <si>
+    <t>地砖.左下</t>
+  </si>
+  <si>
+    <t>地砖.右上</t>
+  </si>
+  <si>
+    <t>地砖.右下</t>
+  </si>
+  <si>
+    <t>房间9*9</t>
+  </si>
+  <si>
+    <t>9*9房间描述</t>
+  </si>
+  <si>
+    <t>[46]</t>
+  </si>
+  <si>
+    <t>房间5*7</t>
+  </si>
+  <si>
+    <t>5*7房间描述</t>
+  </si>
+  <si>
+    <t>[44]</t>
+  </si>
+  <si>
+    <t>勇士</t>
+  </si>
+  <si>
+    <t>只会一些基本功，但是却已经有着守护一方宁静的普通人</t>
+  </si>
+  <si>
+    <t>[27,41]</t>
+  </si>
+  <si>
+    <t>[{k:60,v:1},{k:33,v:3.5}]</t>
+  </si>
+  <si>
+    <t>用于游戏的世界</t>
+  </si>
+  <si>
+    <t>房间</t>
+  </si>
+  <si>
+    <t>用于玩家的房间创建</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>建筑物容器</t>
+  </si>
+  <si>
+    <t>用于房间判定是否可放置</t>
+  </si>
+  <si>
+    <t>梦魇</t>
+  </si>
+  <si>
+    <t>梦魇会在梦中悄无声息的杀死你</t>
+  </si>
+  <si>
+    <t>[41,43]</t>
   </si>
   <si>
     <t>[1]</t>
   </si>
   <si>
-    <t>[{k:0,v:20},{k:60,v:1000},{k:36,v:1}]</t>
-  </si>
-  <si>
-    <t>墙体.竖</t>
-  </si>
-  <si>
-    <t>用以将战斗人员限制在一定范围内</t>
-  </si>
-  <si>
-    <t>[{k:0,v:20},{k:60,v:1000},{k:36,v:2}]</t>
-  </si>
-  <si>
-    <t>城墙</t>
-  </si>
-  <si>
-    <t>老旧破落的城墙，却守护者城内百姓的安宁</t>
-  </si>
-  <si>
-    <t>[{k:0,v:20},{k:60,v:1000},{k:36,v:3}]</t>
-  </si>
-  <si>
-    <t>勇士</t>
-  </si>
-  <si>
-    <t>只会一些基本功，但是却已经有着守护一方宁静的普通人</t>
-  </si>
-  <si>
-    <t>[{k:0,v:20},{k:60,v:1000},{k:36,v:4}]</t>
-  </si>
-  <si>
-    <t>小杂兵</t>
-  </si>
-  <si>
-    <t>爱做小破坏的一帮坏小子，很是令人讨厌</t>
-  </si>
-  <si>
-    <t>[{k:0,v:20},{k:60,v:1000},{k:36,v:5}]</t>
-  </si>
-  <si>
-    <t>叠罗汉_8</t>
-  </si>
-  <si>
-    <t>怕见人的捣蛋鬼，他们将自己隐藏在床单下，露出个眼睛把坏事干</t>
-  </si>
-  <si>
-    <t>[{k:0,v:20},{k:60,v:1000},{k:36,v:6}]</t>
-  </si>
-  <si>
-    <t>叠罗汉_4</t>
-  </si>
-  <si>
-    <t>[{k:0,v:20},{k:60,v:1000},{k:36,v:7}]</t>
-  </si>
-  <si>
-    <t>叠罗汉_2</t>
-  </si>
-  <si>
-    <t>[{k:0,v:20},{k:60,v:1000},{k:36,v:8}]</t>
-  </si>
-  <si>
-    <t>小屁孩</t>
-  </si>
-  <si>
-    <t>小小年纪不学好，该打</t>
-  </si>
-  <si>
-    <t>[{k:0,v:20},{k:60,v:1000},{k:36,v:9}]</t>
+    <t>[{k:60,v:3000}]</t>
+  </si>
+  <si>
+    <t>技能容器，装载技能信息用</t>
+  </si>
+  <si>
+    <t>用于承载技能数据信息用</t>
+  </si>
+  <si>
+    <t>建筑.炮台</t>
+  </si>
+  <si>
+    <t>用于观测范围内敌人，并向其发起攻击</t>
+  </si>
+  <si>
+    <t>[35]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[{k:0,v:20},{k:60,v:10},{k:36,v:1},{k:69,v:30}]</t>
+  </si>
+  <si>
+    <t>梦魇.强力炮弹</t>
+  </si>
+  <si>
+    <t>梦魇的普通攻击，会向着敌人方向发射一颗非常快速的子弹</t>
+  </si>
+  <si>
+    <t>[39]</t>
+  </si>
+  <si>
+    <t>[{k:33,v:20}]</t>
+  </si>
+  <si>
+    <t>玩家炮台.强力炮弹</t>
+  </si>
+  <si>
+    <t>[40]</t>
+  </si>
+  <si>
+    <t>梦魇.劈天神掌</t>
+  </si>
+  <si>
+    <t>向前方挥掌，并造成伤害</t>
+  </si>
+  <si>
+    <t>[43]</t>
+  </si>
+  <si>
+    <t>勇士.自己</t>
+  </si>
+  <si>
+    <t>游戏中自己的英雄</t>
+  </si>
+  <si>
+    <t>[27,42]</t>
+  </si>
+  <si>
+    <t>[{k:60,v:1},{k:33,v:2.5},{k:72,v:150}]</t>
+  </si>
+  <si>
+    <t>内地砖.左上</t>
+  </si>
+  <si>
+    <t>墙体内的砖块，用于更好的描述砖块</t>
+  </si>
+  <si>
+    <t>内地砖.左下</t>
+  </si>
+  <si>
+    <t>内地砖.右上</t>
+  </si>
+  <si>
+    <t>内地砖.右下</t>
+  </si>
+  <si>
+    <t>房间7*7</t>
+  </si>
+  <si>
+    <t>7*7房间描述</t>
+  </si>
+  <si>
+    <t>[54]</t>
+  </si>
+  <si>
+    <t>房间7*9</t>
+  </si>
+  <si>
+    <t>7*9房间描述</t>
+  </si>
+  <si>
+    <t>[56]</t>
+  </si>
+  <si>
+    <t>房间11*3</t>
+  </si>
+  <si>
+    <t>11*3房间描述</t>
+  </si>
+  <si>
+    <t>[58]</t>
+  </si>
+  <si>
+    <t>房间9*7</t>
+  </si>
+  <si>
+    <t>9*7房间描述</t>
+  </si>
+  <si>
+    <t>[60]</t>
+  </si>
+  <si>
+    <t>房门纵移-&gt;左边</t>
+  </si>
+  <si>
+    <t>左边的房门</t>
+  </si>
+  <si>
+    <t>[{k:60,v:300}]</t>
+  </si>
+  <si>
+    <t>房门纵移-&gt;右边</t>
+  </si>
+  <si>
+    <t>右边的房门</t>
+  </si>
+  <si>
+    <t>房门横移-&gt;上边</t>
+  </si>
+  <si>
+    <t>上边的房门</t>
+  </si>
+  <si>
+    <t>房门横移-&gt;下边</t>
+  </si>
+  <si>
+    <t>下边的房门</t>
+  </si>
+  <si>
+    <t>房门触发器</t>
+  </si>
+  <si>
+    <t>房门触发器，可用于房门的开启与关闭</t>
+  </si>
+  <si>
+    <t>床</t>
+  </si>
+  <si>
+    <t>用于玩家休息的床</t>
+  </si>
+  <si>
+    <t>[{k:60,v:1}]</t>
+  </si>
+  <si>
+    <t>床体触发器</t>
+  </si>
+  <si>
+    <t>练气塔</t>
+  </si>
+  <si>
+    <t>用于生成建造建筑所必须的游戏资源</t>
+  </si>
+  <si>
+    <t>镜头窗口观察器</t>
+  </si>
+  <si>
+    <t>用于观察可是范围内的视野对象</t>
+  </si>
+  <si>
+    <t>[42]</t>
+  </si>
+  <si>
+    <t>世界地图上边</t>
+  </si>
+  <si>
+    <t>世界地图下边</t>
+  </si>
+  <si>
+    <t>地砖地图左边</t>
+  </si>
+  <si>
+    <t>地砖地图右边</t>
+  </si>
+  <si>
+    <t>地砖.上横(5*1)</t>
+  </si>
+  <si>
+    <t>地砖.下横(3*1)</t>
+  </si>
+  <si>
+    <t>地砖.左竖(1*5)</t>
+  </si>
+  <si>
+    <t>地砖.右竖(1*7)</t>
+  </si>
+  <si>
+    <t>地砖.右竖(1*3)</t>
+  </si>
+  <si>
+    <t>地砖.左竖(1*3)</t>
+  </si>
+  <si>
+    <t>地砖.左竖(1*7)</t>
+  </si>
+  <si>
+    <t>地砖.下横(5*1)</t>
+  </si>
+  <si>
+    <t>地砖.下横(9*1)</t>
+  </si>
+  <si>
+    <t>地砖.下横(7*1)</t>
   </si>
 </sst>
 </file>
@@ -341,7 +662,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +672,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +1000,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,16 +1024,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -715,102 +1042,120 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1124,358 +1469,2539 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="12.35" customWidth="1"/>
-    <col min="3" max="4" width="9.55833333333333" customWidth="1"/>
-    <col min="5" max="5" width="24.1166666666667" customWidth="1"/>
-    <col min="6" max="7" width="26.4666666666667" customWidth="1"/>
-    <col min="8" max="8" width="36" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.35" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="66.325" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.55833333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7333333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.4666666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="41.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="95" customHeight="1" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="67" customHeight="1" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:14">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>15</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:14">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>13</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>14</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:14">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>9</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:14">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:14">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>11</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:14">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>12</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:14">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>45</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:14">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:14">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>33</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:14">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:14">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:14">
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:14">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>29</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>30</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="K22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:14">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="2">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>38</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N23" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="1">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>68</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N24" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:14">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2">
+        <v>31</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="2">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>38</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>33</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N26" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:14">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>49</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="1:14">
+      <c r="A28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="3">
+        <v>37</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>50</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:14">
+      <c r="A29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="2">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>51</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="1:14">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3">
+        <v>39</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="3">
+        <v>5</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>52</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:14">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2">
+        <v>40</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>53</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2">
+        <v>41</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>55</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2">
+        <v>42</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>57</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>59</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="1">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="H35" s="1">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>61</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N35" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="1">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>62</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N36" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:14">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>46</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="2">
+        <v>6</v>
+      </c>
+      <c r="F37" s="2">
+        <v>3</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>63</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N37" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>64</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N38" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" s="3" customFormat="1" spans="1:14">
+      <c r="A39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="3">
+        <v>48</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="3">
+        <v>100</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>65</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N39" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:14">
+      <c r="A40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="2">
+        <v>49</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="2">
+        <v>6</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>66</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N40" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:14">
+      <c r="A41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2">
+        <v>51</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="2">
+        <v>100</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>67</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N41" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:14">
+      <c r="A42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2">
+        <v>52</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="2">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>19</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N42" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="1">
+        <v>53</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="1">
+        <v>100</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>69</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N43" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="3" customFormat="1" spans="1:14">
+      <c r="A44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="3">
+        <v>54</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>71</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N44" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:14">
+      <c r="A45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="2">
+        <v>55</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="4">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>48</v>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>72</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N45" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="3" customFormat="1" spans="1:14">
+      <c r="A46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="3">
+        <v>56</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>73</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N46" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:14">
+      <c r="A47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="2">
+        <v>57</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>74</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N47" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:14">
+      <c r="A48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="7">
+        <v>75</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="2">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7">
+        <v>75</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N48" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:14">
+      <c r="A49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="8">
+        <v>76</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="2">
+        <v>5</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8">
+        <v>76</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N49" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:14">
+      <c r="A50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="8">
+        <v>77</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8">
+        <v>77</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N50" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:14">
+      <c r="A51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="8">
+        <v>78</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
+        <v>78</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N51" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="1:14">
+      <c r="A52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="8">
+        <v>79</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" s="2">
+        <v>5</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8">
+        <v>79</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N52" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="1:14">
+      <c r="A53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="8">
+        <v>80</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="2">
+        <v>5</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8">
+        <v>80</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N53" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="1:14">
+      <c r="A54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="8">
+        <v>81</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="2">
+        <v>5</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
+        <v>81</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N54" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:14">
+      <c r="A55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="8">
+        <v>82</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="2">
+        <v>5</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8">
+        <v>82</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N55" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:14">
+      <c r="A56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="8">
+        <v>83</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="2">
+        <v>5</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8">
+        <v>83</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N56" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="1:14">
+      <c r="A57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="8">
+        <v>84</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="2">
+        <v>5</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="8">
+        <v>84</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N57" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
